--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Spn-Siglec1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Spn-Siglec1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Spn</t>
   </si>
   <si>
     <t>Siglec1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.15503217510025</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="H2">
-        <v>2.15503217510025</v>
+        <v>0.049481</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.274173611760019</v>
+        <v>0.448046</v>
       </c>
       <c r="N2">
-        <v>0.274173611760019</v>
+        <v>1.344138</v>
       </c>
       <c r="O2">
-        <v>0.002176823712096862</v>
+        <v>0.003262765631400002</v>
       </c>
       <c r="P2">
-        <v>0.002176823712096862</v>
+        <v>0.003262765631400002</v>
       </c>
       <c r="Q2">
-        <v>0.5908529549062852</v>
+        <v>0.007389921375333334</v>
       </c>
       <c r="R2">
-        <v>0.5908529549062852</v>
+        <v>0.066509292378</v>
       </c>
       <c r="S2">
-        <v>0.002176823712096862</v>
+        <v>1.483172295647443E-05</v>
       </c>
       <c r="T2">
-        <v>0.002176823712096862</v>
+        <v>1.483172295647443E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.15503217510025</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="H3">
-        <v>2.15503217510025</v>
+        <v>0.049481</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.4738190545751</v>
+        <v>0.293899</v>
       </c>
       <c r="N3">
-        <v>64.4738190545751</v>
+        <v>0.881697</v>
       </c>
       <c r="O3">
-        <v>0.5118951354453714</v>
+        <v>0.002140234610515057</v>
       </c>
       <c r="P3">
-        <v>0.5118951354453714</v>
+        <v>0.002140234610515057</v>
       </c>
       <c r="Q3">
-        <v>138.9431545142009</v>
+        <v>0.004847472139666666</v>
       </c>
       <c r="R3">
-        <v>138.9431545142009</v>
+        <v>0.043627249257</v>
       </c>
       <c r="S3">
-        <v>0.5118951354453714</v>
+        <v>9.728975473913122E-06</v>
       </c>
       <c r="T3">
-        <v>0.5118951354453714</v>
+        <v>9.728975473913122E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.15503217510025</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="H4">
-        <v>2.15503217510025</v>
+        <v>0.049481</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.004545751865760082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.0753278570688</v>
+        <v>68.343451</v>
       </c>
       <c r="N4">
-        <v>61.0753278570688</v>
+        <v>205.030353</v>
       </c>
       <c r="O4">
-        <v>0.4849125378985312</v>
+        <v>0.4976914492129605</v>
       </c>
       <c r="P4">
-        <v>0.4849125378985312</v>
+        <v>0.4976914492129605</v>
       </c>
       <c r="Q4">
-        <v>131.6192966367799</v>
+        <v>1.127234099643667</v>
       </c>
       <c r="R4">
-        <v>131.6192966367799</v>
+        <v>10.145106896793</v>
       </c>
       <c r="S4">
-        <v>0.4849125378985312</v>
+        <v>0.002262381833832655</v>
       </c>
       <c r="T4">
-        <v>0.4849125378985312</v>
+        <v>0.002262381833832654</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1363 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01649366666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.049481</v>
+      </c>
+      <c r="I5">
+        <v>0.004545751865760082</v>
+      </c>
+      <c r="J5">
+        <v>0.004545751865760082</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>68.09333099999999</v>
+      </c>
+      <c r="N5">
+        <v>204.279993</v>
+      </c>
+      <c r="O5">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="P5">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="Q5">
+        <v>1.123108703737</v>
+      </c>
+      <c r="R5">
+        <v>10.107978333633</v>
+      </c>
+      <c r="S5">
+        <v>0.002254102080088902</v>
+      </c>
+      <c r="T5">
+        <v>0.002254102080088902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01649366666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.049481</v>
+      </c>
+      <c r="I6">
+        <v>0.004545751865760082</v>
+      </c>
+      <c r="J6">
+        <v>0.004545751865760082</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1421996666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.4265990000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="P6">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="Q6">
+        <v>0.002345393902111112</v>
+      </c>
+      <c r="R6">
+        <v>0.021108545119</v>
+      </c>
+      <c r="S6">
+        <v>4.707253408138925E-06</v>
+      </c>
+      <c r="T6">
+        <v>4.707253408138925E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09931666666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.29795</v>
+      </c>
+      <c r="I7">
+        <v>0.02737225942085278</v>
+      </c>
+      <c r="J7">
+        <v>0.02737225942085279</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.448046</v>
+      </c>
+      <c r="N7">
+        <v>1.344138</v>
+      </c>
+      <c r="O7">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="P7">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="Q7">
+        <v>0.04449843523333333</v>
+      </c>
+      <c r="R7">
+        <v>0.4004859171</v>
+      </c>
+      <c r="S7">
+        <v>8.930926729212338E-05</v>
+      </c>
+      <c r="T7">
+        <v>8.930926729212339E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09931666666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.29795</v>
+      </c>
+      <c r="I8">
+        <v>0.02737225942085278</v>
+      </c>
+      <c r="J8">
+        <v>0.02737225942085279</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.293899</v>
+      </c>
+      <c r="N8">
+        <v>0.881697</v>
+      </c>
+      <c r="O8">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="P8">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="Q8">
+        <v>0.02918906901666666</v>
+      </c>
+      <c r="R8">
+        <v>0.26270162115</v>
+      </c>
+      <c r="S8">
+        <v>5.858305698050595E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.858305698050596E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.15503217510025</v>
-      </c>
-      <c r="H5">
-        <v>2.15503217510025</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.127903839140644</v>
-      </c>
-      <c r="N5">
-        <v>0.127903839140644</v>
-      </c>
-      <c r="O5">
-        <v>0.001015502944000599</v>
-      </c>
-      <c r="P5">
-        <v>0.001015502944000599</v>
-      </c>
-      <c r="Q5">
-        <v>0.2756368886669345</v>
-      </c>
-      <c r="R5">
-        <v>0.2756368886669345</v>
-      </c>
-      <c r="S5">
-        <v>0.001015502944000599</v>
-      </c>
-      <c r="T5">
-        <v>0.001015502944000599</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09931666666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.29795</v>
+      </c>
+      <c r="I9">
+        <v>0.02737225942085278</v>
+      </c>
+      <c r="J9">
+        <v>0.02737225942085279</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>68.343451</v>
+      </c>
+      <c r="N9">
+        <v>205.030353</v>
+      </c>
+      <c r="O9">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="P9">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="Q9">
+        <v>6.787643741816667</v>
+      </c>
+      <c r="R9">
+        <v>61.08879367634999</v>
+      </c>
+      <c r="S9">
+        <v>0.01362293945939733</v>
+      </c>
+      <c r="T9">
+        <v>0.01362293945939733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09931666666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.29795</v>
+      </c>
+      <c r="I10">
+        <v>0.02737225942085278</v>
+      </c>
+      <c r="J10">
+        <v>0.02737225942085279</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>68.09333099999999</v>
+      </c>
+      <c r="N10">
+        <v>204.279993</v>
+      </c>
+      <c r="O10">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="P10">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="Q10">
+        <v>6.762802657149999</v>
+      </c>
+      <c r="R10">
+        <v>60.86522391435</v>
+      </c>
+      <c r="S10">
+        <v>0.01357308289570721</v>
+      </c>
+      <c r="T10">
+        <v>0.01357308289570721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.09931666666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.29795</v>
+      </c>
+      <c r="I11">
+        <v>0.02737225942085278</v>
+      </c>
+      <c r="J11">
+        <v>0.02737225942085279</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.1421996666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.4265990000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="P11">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="Q11">
+        <v>0.01412279689444445</v>
+      </c>
+      <c r="R11">
+        <v>0.12710517205</v>
+      </c>
+      <c r="S11">
+        <v>2.834474147561675E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.834474147561676E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.7543926666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.263178</v>
+      </c>
+      <c r="I12">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="J12">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.448046</v>
+      </c>
+      <c r="N12">
+        <v>1.344138</v>
+      </c>
+      <c r="O12">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="P12">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="Q12">
+        <v>0.3380026167293333</v>
+      </c>
+      <c r="R12">
+        <v>3.042023550564</v>
+      </c>
+      <c r="S12">
+        <v>0.0006783781471107676</v>
+      </c>
+      <c r="T12">
+        <v>0.0006783781471107677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.7543926666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.263178</v>
+      </c>
+      <c r="I13">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="J13">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.293899</v>
+      </c>
+      <c r="N13">
+        <v>0.881697</v>
+      </c>
+      <c r="O13">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="P13">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="Q13">
+        <v>0.2217152503406666</v>
+      </c>
+      <c r="R13">
+        <v>1.995437253066</v>
+      </c>
+      <c r="S13">
+        <v>0.0004449870304783604</v>
+      </c>
+      <c r="T13">
+        <v>0.0004449870304783605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7543926666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.263178</v>
+      </c>
+      <c r="I14">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="J14">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>68.343451</v>
+      </c>
+      <c r="N14">
+        <v>205.030353</v>
+      </c>
+      <c r="O14">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="P14">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="Q14">
+        <v>51.55779824909266</v>
+      </c>
+      <c r="R14">
+        <v>464.020184241834</v>
+      </c>
+      <c r="S14">
+        <v>0.1034775528774624</v>
+      </c>
+      <c r="T14">
+        <v>0.1034775528774625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7543926666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.263178</v>
+      </c>
+      <c r="I15">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="J15">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>68.09333099999999</v>
+      </c>
+      <c r="N15">
+        <v>204.279993</v>
+      </c>
+      <c r="O15">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="P15">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="Q15">
+        <v>51.36910955530599</v>
+      </c>
+      <c r="R15">
+        <v>462.321985997754</v>
+      </c>
+      <c r="S15">
+        <v>0.1030988508197377</v>
+      </c>
+      <c r="T15">
+        <v>0.1030988508197377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7543926666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.263178</v>
+      </c>
+      <c r="I16">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="J16">
+        <v>0.2079150707553843</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1421996666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.4265990000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="P16">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="Q16">
+        <v>0.1072743857357778</v>
+      </c>
+      <c r="R16">
+        <v>0.9654694716220001</v>
+      </c>
+      <c r="S16">
+        <v>0.0002153018805950776</v>
+      </c>
+      <c r="T16">
+        <v>0.0002153018805950776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.435543666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.306631</v>
+      </c>
+      <c r="I17">
+        <v>0.671250207163769</v>
+      </c>
+      <c r="J17">
+        <v>0.6712502071637692</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.448046</v>
+      </c>
+      <c r="N17">
+        <v>1.344138</v>
+      </c>
+      <c r="O17">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="P17">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="Q17">
+        <v>1.091235597675333</v>
+      </c>
+      <c r="R17">
+        <v>9.821120379078002</v>
+      </c>
+      <c r="S17">
+        <v>0.002190132106004077</v>
+      </c>
+      <c r="T17">
+        <v>0.002190132106004077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.435543666666667</v>
+      </c>
+      <c r="H18">
+        <v>7.306631</v>
+      </c>
+      <c r="I18">
+        <v>0.671250207163769</v>
+      </c>
+      <c r="J18">
+        <v>0.6712502071637692</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.293899</v>
+      </c>
+      <c r="N18">
+        <v>0.881697</v>
+      </c>
+      <c r="O18">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="P18">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="Q18">
+        <v>0.7158038480896666</v>
+      </c>
+      <c r="R18">
+        <v>6.442234632807</v>
+      </c>
+      <c r="S18">
+        <v>0.0014366329256873</v>
+      </c>
+      <c r="T18">
+        <v>0.001436632925687301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.435543666666667</v>
+      </c>
+      <c r="H19">
+        <v>7.306631</v>
+      </c>
+      <c r="I19">
+        <v>0.671250207163769</v>
+      </c>
+      <c r="J19">
+        <v>0.6712502071637692</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>68.343451</v>
+      </c>
+      <c r="N19">
+        <v>205.030353</v>
+      </c>
+      <c r="O19">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="P19">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="Q19">
+        <v>166.4534592411937</v>
+      </c>
+      <c r="R19">
+        <v>1498.081133170743</v>
+      </c>
+      <c r="S19">
+        <v>0.3340754883878362</v>
+      </c>
+      <c r="T19">
+        <v>0.3340754883878362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.435543666666667</v>
+      </c>
+      <c r="H20">
+        <v>7.306631</v>
+      </c>
+      <c r="I20">
+        <v>0.671250207163769</v>
+      </c>
+      <c r="J20">
+        <v>0.6712502071637692</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>68.09333099999999</v>
+      </c>
+      <c r="N20">
+        <v>204.279993</v>
+      </c>
+      <c r="O20">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="P20">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="Q20">
+        <v>165.844281059287</v>
+      </c>
+      <c r="R20">
+        <v>1492.598529533583</v>
+      </c>
+      <c r="S20">
+        <v>0.3328528553493675</v>
+      </c>
+      <c r="T20">
+        <v>0.3328528553493675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.435543666666667</v>
+      </c>
+      <c r="H21">
+        <v>7.306631</v>
+      </c>
+      <c r="I21">
+        <v>0.671250207163769</v>
+      </c>
+      <c r="J21">
+        <v>0.6712502071637692</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1421996666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.4265990000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="P21">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="Q21">
+        <v>0.3463334975521112</v>
+      </c>
+      <c r="R21">
+        <v>3.117001477969001</v>
+      </c>
+      <c r="S21">
+        <v>0.0006950983948740631</v>
+      </c>
+      <c r="T21">
+        <v>0.0006950983948740632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3226226666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.9678680000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.08891671079423373</v>
+      </c>
+      <c r="J22">
+        <v>0.08891671079423376</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.448046</v>
+      </c>
+      <c r="N22">
+        <v>1.344138</v>
+      </c>
+      <c r="O22">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="P22">
+        <v>0.003262765631400002</v>
+      </c>
+      <c r="Q22">
+        <v>0.1445497953093333</v>
+      </c>
+      <c r="R22">
+        <v>1.300948157784</v>
+      </c>
+      <c r="S22">
+        <v>0.0002901143880365594</v>
+      </c>
+      <c r="T22">
+        <v>0.0002901143880365595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3226226666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.9678680000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.08891671079423373</v>
+      </c>
+      <c r="J23">
+        <v>0.08891671079423376</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.293899</v>
+      </c>
+      <c r="N23">
+        <v>0.881697</v>
+      </c>
+      <c r="O23">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="P23">
+        <v>0.002140234610515057</v>
+      </c>
+      <c r="Q23">
+        <v>0.09481847911066665</v>
+      </c>
+      <c r="R23">
+        <v>0.853366311996</v>
+      </c>
+      <c r="S23">
+        <v>0.0001903026218949768</v>
+      </c>
+      <c r="T23">
+        <v>0.0001903026218949768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3226226666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.9678680000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.08891671079423373</v>
+      </c>
+      <c r="J24">
+        <v>0.08891671079423376</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>68.343451</v>
+      </c>
+      <c r="N24">
+        <v>205.030353</v>
+      </c>
+      <c r="O24">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="P24">
+        <v>0.4976914492129605</v>
+      </c>
+      <c r="Q24">
+        <v>22.04914641082267</v>
+      </c>
+      <c r="R24">
+        <v>198.442317697404</v>
+      </c>
+      <c r="S24">
+        <v>0.04425308665443188</v>
+      </c>
+      <c r="T24">
+        <v>0.04425308665443189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3226226666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.9678680000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.08891671079423373</v>
+      </c>
+      <c r="J25">
+        <v>0.08891671079423376</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>68.09333099999999</v>
+      </c>
+      <c r="N25">
+        <v>204.279993</v>
+      </c>
+      <c r="O25">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="P25">
+        <v>0.4958700225297052</v>
+      </c>
+      <c r="Q25">
+        <v>21.968452029436</v>
+      </c>
+      <c r="R25">
+        <v>197.716068264924</v>
+      </c>
+      <c r="S25">
+        <v>0.04409113138480397</v>
+      </c>
+      <c r="T25">
+        <v>0.04409113138480398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3226226666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.9678680000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.08891671079423373</v>
+      </c>
+      <c r="J26">
+        <v>0.08891671079423376</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1421996666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.4265990000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="P26">
+        <v>0.001035528015419257</v>
+      </c>
+      <c r="Q26">
+        <v>0.04587683565911112</v>
+      </c>
+      <c r="R26">
+        <v>0.4128915209320001</v>
+      </c>
+      <c r="S26">
+        <v>9.207574506636092E-05</v>
+      </c>
+      <c r="T26">
+        <v>9.207574506636095E-05</v>
       </c>
     </row>
   </sheetData>
